--- a/Assets/06.Table/NewSemesterPass.xlsx
+++ b/Assets/06.Table/NewSemesterPass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49826D8B-F0F6-47C3-A570-950A093D387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627F032-F679-4405-879F-AC2DD614DAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NewSemesterPass" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="38">
   <si>
     <t>Id</t>
   </si>
@@ -154,6 +154,30 @@
   </si>
   <si>
     <t>수미꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내면세계 입장권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀문석 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가을 훈련 소탕권 최종 지급량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술꽃 소탕권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +185,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +241,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -238,6 +270,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +335,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -648,7 +692,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -689,16 +733,16 @@
         <v>5000000</v>
       </c>
       <c r="C2" s="8">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="D2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="8">
-        <v>9028</v>
+        <v>9044</v>
       </c>
       <c r="F2" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -709,13 +753,13 @@
         <v>10000000</v>
       </c>
       <c r="C3" s="8">
-        <v>9027</v>
+        <v>9038</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
       <c r="E3" s="8">
-        <v>9027</v>
+        <v>9038</v>
       </c>
       <c r="F3" s="7">
         <v>5</v>
@@ -729,13 +773,13 @@
         <v>15000000</v>
       </c>
       <c r="C4" s="8">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
       </c>
       <c r="E4" s="8">
-        <v>9017</v>
+        <v>9033</v>
       </c>
       <c r="F4" s="7">
         <v>5</v>
@@ -749,13 +793,13 @@
         <v>20000000</v>
       </c>
       <c r="C5" s="8">
-        <v>9023</v>
+        <v>9028</v>
       </c>
       <c r="D5" s="7">
         <v>2</v>
       </c>
       <c r="E5" s="8">
-        <v>9023</v>
+        <v>9028</v>
       </c>
       <c r="F5" s="7">
         <v>10</v>
@@ -769,16 +813,16 @@
         <v>25000000</v>
       </c>
       <c r="C6" s="8">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="D6" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6" s="8">
-        <v>9009</v>
+        <v>9027</v>
       </c>
       <c r="F6" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
@@ -789,16 +833,16 @@
         <v>30000000</v>
       </c>
       <c r="C7" s="8">
-        <v>9028</v>
+        <v>9017</v>
       </c>
       <c r="D7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="8">
-        <v>9028</v>
+        <v>9017</v>
       </c>
       <c r="F7" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -809,16 +853,16 @@
         <v>35000000</v>
       </c>
       <c r="C8" s="8">
-        <v>9027</v>
+        <v>9023</v>
       </c>
       <c r="D8" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="8">
-        <v>9027</v>
+        <v>9023</v>
       </c>
       <c r="F8" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -829,13 +873,13 @@
         <v>40000000</v>
       </c>
       <c r="C9" s="8">
-        <v>9017</v>
+        <v>9044</v>
       </c>
       <c r="D9" s="7">
         <v>1</v>
       </c>
       <c r="E9" s="8">
-        <v>9017</v>
+        <v>9044</v>
       </c>
       <c r="F9" s="7">
         <v>5</v>
@@ -849,16 +893,16 @@
         <v>45000000</v>
       </c>
       <c r="C10" s="8">
-        <v>9023</v>
+        <v>9038</v>
       </c>
       <c r="D10" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="8">
-        <v>9023</v>
+        <v>9038</v>
       </c>
       <c r="F10" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -869,16 +913,16 @@
         <v>50000000</v>
       </c>
       <c r="C11" s="8">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="D11" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="8">
-        <v>9009</v>
+        <v>9033</v>
       </c>
       <c r="F11" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -969,16 +1013,16 @@
         <v>75000000</v>
       </c>
       <c r="C16" s="8">
-        <v>9009</v>
+        <v>9044</v>
       </c>
       <c r="D16" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E16" s="8">
-        <v>9009</v>
+        <v>9044</v>
       </c>
       <c r="F16" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -989,16 +1033,16 @@
         <v>80000000</v>
       </c>
       <c r="C17" s="8">
-        <v>9028</v>
+        <v>9038</v>
       </c>
       <c r="D17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="8">
-        <v>9028</v>
+        <v>9038</v>
       </c>
       <c r="F17" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1009,13 +1053,13 @@
         <v>85000000</v>
       </c>
       <c r="C18" s="8">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="8">
-        <v>9027</v>
+        <v>9033</v>
       </c>
       <c r="F18" s="7">
         <v>5</v>
@@ -1029,16 +1073,16 @@
         <v>90000000</v>
       </c>
       <c r="C19" s="8">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="D19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="8">
-        <v>9017</v>
+        <v>9028</v>
       </c>
       <c r="F19" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -1049,16 +1093,16 @@
         <v>95000000</v>
       </c>
       <c r="C20" s="8">
-        <v>9023</v>
+        <v>9027</v>
       </c>
       <c r="D20" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" s="8">
-        <v>9023</v>
+        <v>9027</v>
       </c>
       <c r="F20" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1069,16 +1113,16 @@
         <v>100000000</v>
       </c>
       <c r="C21" s="8">
-        <v>9009</v>
+        <v>9017</v>
       </c>
       <c r="D21" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="8">
-        <v>9009</v>
+        <v>9017</v>
       </c>
       <c r="F21" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -1089,13 +1133,13 @@
         <v>105000000</v>
       </c>
       <c r="C22" s="8">
-        <v>9028</v>
+        <v>9023</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
       </c>
       <c r="E22" s="8">
-        <v>9028</v>
+        <v>9023</v>
       </c>
       <c r="F22" s="7">
         <v>10</v>
@@ -1109,13 +1153,13 @@
         <v>110000000</v>
       </c>
       <c r="C23" s="8">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="8">
-        <v>9027</v>
+        <v>9044</v>
       </c>
       <c r="F23" s="7">
         <v>5</v>
@@ -1129,13 +1173,13 @@
         <v>115000000</v>
       </c>
       <c r="C24" s="8">
-        <v>9017</v>
+        <v>9038</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="8">
-        <v>9017</v>
+        <v>9038</v>
       </c>
       <c r="F24" s="7">
         <v>5</v>
@@ -1149,16 +1193,16 @@
         <v>120000000</v>
       </c>
       <c r="C25" s="8">
-        <v>9023</v>
+        <v>9033</v>
       </c>
       <c r="D25" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E25" s="8">
-        <v>9023</v>
+        <v>9033</v>
       </c>
       <c r="F25" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -1169,16 +1213,16 @@
         <v>125000000</v>
       </c>
       <c r="C26" s="8">
-        <v>9009</v>
+        <v>9028</v>
       </c>
       <c r="D26" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" s="8">
-        <v>9009</v>
+        <v>9028</v>
       </c>
       <c r="F26" s="7">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -1189,16 +1233,16 @@
         <v>130000000</v>
       </c>
       <c r="C27" s="8">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="D27" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="8">
-        <v>9028</v>
+        <v>9027</v>
       </c>
       <c r="F27" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1209,13 +1253,13 @@
         <v>135000000</v>
       </c>
       <c r="C28" s="8">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="8">
-        <v>9027</v>
+        <v>9017</v>
       </c>
       <c r="F28" s="7">
         <v>5</v>
@@ -1229,16 +1273,16 @@
         <v>140000000</v>
       </c>
       <c r="C29" s="8">
-        <v>9017</v>
+        <v>9023</v>
       </c>
       <c r="D29" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="8">
-        <v>9017</v>
+        <v>9023</v>
       </c>
       <c r="F29" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1249,16 +1293,16 @@
         <v>145000000</v>
       </c>
       <c r="C30" s="8">
-        <v>9023</v>
+        <v>9044</v>
       </c>
       <c r="D30" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" s="8">
-        <v>9023</v>
+        <v>9044</v>
       </c>
       <c r="F30" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1269,16 +1313,16 @@
         <v>150000000</v>
       </c>
       <c r="C31" s="8">
-        <v>9009</v>
+        <v>9038</v>
       </c>
       <c r="D31" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E31" s="8">
-        <v>9009</v>
+        <v>9038</v>
       </c>
       <c r="F31" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1290,10 +1334,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B699092B-189E-427C-8E28-BF4AED1E11B6}">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1663,19 +1707,19 @@
       </c>
       <c r="J19" s="1">
         <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H19,NewSemesterPass!D:D)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K19" s="1">
         <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H19,NewSemesterPass!F:F)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L19" s="1">
         <f>J19+K19</f>
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="M19">
         <f>L19/4</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
@@ -1705,19 +1749,19 @@
       </c>
       <c r="J20" s="1">
         <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H20,NewSemesterPass!D:D)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K20" s="1">
         <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H20,NewSemesterPass!F:F)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" ref="L20:L23" si="3">J20+K20</f>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M20">
         <f>L20/2</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
@@ -1747,19 +1791,19 @@
       </c>
       <c r="J21" s="1">
         <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H21,NewSemesterPass!D:D)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K21" s="1">
         <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H21,NewSemesterPass!F:F)</f>
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="3"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M21">
         <f>L21/2</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
@@ -1789,15 +1833,15 @@
       </c>
       <c r="J22" s="1">
         <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H22,NewSemesterPass!D:D)</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K22" s="1">
         <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H22,NewSemesterPass!F:F)</f>
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L22" s="1">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -1827,15 +1871,15 @@
       </c>
       <c r="J23" s="1">
         <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H23,NewSemesterPass!D:D)</f>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H23,NewSemesterPass!F:F)</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1">
         <f t="shared" si="3"/>
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -1862,12 +1906,198 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H25" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="8">
+        <v>9044</v>
+      </c>
+      <c r="I27" t="s">
+        <v>32</v>
+      </c>
+      <c r="J27" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H27,NewSemesterPass!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="K27" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H27,NewSemesterPass!F:F)</f>
+        <v>25</v>
+      </c>
+      <c r="L27" s="1">
+        <f>J27+K27</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="8">
+        <v>9038</v>
+      </c>
+      <c r="I28" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H28,NewSemesterPass!D:D)</f>
+        <v>5</v>
+      </c>
+      <c r="K28" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H28,NewSemesterPass!F:F)</f>
+        <v>25</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" ref="L28:L33" si="4">J28+K28</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="8">
+        <v>9033</v>
+      </c>
+      <c r="I29" t="s">
+        <v>35</v>
+      </c>
+      <c r="J29" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H29,NewSemesterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K29" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H29,NewSemesterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="8">
+        <v>9028</v>
+      </c>
+      <c r="I30" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H30,NewSemesterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K30" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H30,NewSemesterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H31" s="8">
+        <v>9027</v>
+      </c>
+      <c r="I31" t="s">
+        <v>28</v>
+      </c>
+      <c r="J31" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H31,NewSemesterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K31" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H31,NewSemesterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="8">
+        <v>9017</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H32,NewSemesterPass!D:D)</f>
+        <v>4</v>
+      </c>
+      <c r="K32" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H32,NewSemesterPass!F:F)</f>
+        <v>20</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="8">
+        <v>9023</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
+      </c>
+      <c r="J33" s="1">
+        <f>SUMIF(NewSemesterPass!C:C,'보상 측정'!H33,NewSemesterPass!D:D)</f>
+        <v>8</v>
+      </c>
+      <c r="K33" s="1">
+        <f>SUMIF(NewSemesterPass!E:E,'보상 측정'!H33,NewSemesterPass!F:F)</f>
+        <v>40</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
+    <mergeCell ref="H25:J25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
